--- a/Gps808/config.xlsx
+++ b/Gps808/config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -121,6 +121,14 @@
   </si>
   <si>
     <t>excle\轨迹列表_G.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026-1-21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -203,10 +211,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -508,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -521,12 +529,13 @@
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.65" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.65" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,198 +552,222 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>6608</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>13301110130</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4">
         <v>0.63252314814814814</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>6608</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>13301110130</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4">
         <v>0.63946759259259256</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>6608</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>13301110130</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4">
         <v>0.64641203703703709</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>6608</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>13301110130</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="4">
         <v>0.65335648148148096</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>6608</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>13301110130</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="4">
         <v>0.66030092592592604</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>6608</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>13301110130</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="4">
         <v>0.66724537037037002</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>6608</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>13301110130</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="4">
         <v>0.67418981481481499</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -743,8 +776,9 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -753,8 +787,9 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -763,8 +798,9 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -773,8 +809,9 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -783,8 +820,9 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -793,8 +831,9 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -803,8 +842,9 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -813,8 +853,9 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -823,8 +864,9 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -833,8 +875,9 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -843,8 +886,9 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -853,8 +897,9 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -863,6 +908,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Gps808/config.xlsx
+++ b/Gps808/config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="138">
   <si>
     <t>name</t>
   </si>
@@ -40,30 +40,12 @@
   </si>
   <si>
     <t>enabled</t>
-  </si>
-  <si>
-    <t>excle\轨迹列表_A.xlsx</t>
-  </si>
-  <si>
-    <t>14.23.86.188</t>
-  </si>
-  <si>
-    <t>excle\轨迹列表_B.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>excle\轨迹列表_C.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>车辆1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -102,33 +84,362 @@
     <t>处理车辆5的数据</t>
   </si>
   <si>
+    <t>处理车辆7的数据</t>
+  </si>
+  <si>
+    <t>6608</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆8</t>
+  </si>
+  <si>
+    <t>车辆9</t>
+  </si>
+  <si>
+    <t>车辆10</t>
+  </si>
+  <si>
+    <t>车辆11</t>
+  </si>
+  <si>
     <t>处理车辆6的数据</t>
   </si>
   <si>
-    <t>处理车辆7的数据</t>
-  </si>
-  <si>
-    <t>excle\轨迹列表_D.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>excle\轨迹列表_E.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>excle\轨迹列表_F.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>excle\轨迹列表_G.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>处理车辆8的数据</t>
+  </si>
+  <si>
+    <t>处理车辆9的数据</t>
+  </si>
+  <si>
+    <t>处理车辆10的数据</t>
+  </si>
+  <si>
+    <t>处理车辆11的数据</t>
   </si>
   <si>
     <t>start_date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2026-1-21</t>
+    <t>车辆12</t>
+  </si>
+  <si>
+    <t>车辆13</t>
+  </si>
+  <si>
+    <t>车辆14</t>
+  </si>
+  <si>
+    <t>车辆15</t>
+  </si>
+  <si>
+    <t>车辆16</t>
+  </si>
+  <si>
+    <t>车辆17</t>
+  </si>
+  <si>
+    <t>车辆18</t>
+  </si>
+  <si>
+    <t>车辆19</t>
+  </si>
+  <si>
+    <t>车辆20</t>
+  </si>
+  <si>
+    <t>车辆21</t>
+  </si>
+  <si>
+    <t>车辆22</t>
+  </si>
+  <si>
+    <t>车辆23</t>
+  </si>
+  <si>
+    <t>车辆24</t>
+  </si>
+  <si>
+    <t>车辆25</t>
+  </si>
+  <si>
+    <t>车辆26</t>
+  </si>
+  <si>
+    <t>车辆27</t>
+  </si>
+  <si>
+    <t>车辆28</t>
+  </si>
+  <si>
+    <t>车辆29</t>
+  </si>
+  <si>
+    <t>车辆30</t>
+  </si>
+  <si>
+    <t>车辆31</t>
+  </si>
+  <si>
+    <t>车辆32</t>
+  </si>
+  <si>
+    <t>车辆33</t>
+  </si>
+  <si>
+    <t>车辆34</t>
+  </si>
+  <si>
+    <t>车辆35</t>
+  </si>
+  <si>
+    <t>车辆36</t>
+  </si>
+  <si>
+    <t>车辆37</t>
+  </si>
+  <si>
+    <t>车辆38</t>
+  </si>
+  <si>
+    <t>车辆39</t>
+  </si>
+  <si>
+    <t>车辆40</t>
+  </si>
+  <si>
+    <t>车辆41</t>
+  </si>
+  <si>
+    <t>车辆42</t>
+  </si>
+  <si>
+    <t>车辆43</t>
+  </si>
+  <si>
+    <t>车辆44</t>
+  </si>
+  <si>
+    <t>车辆45</t>
+  </si>
+  <si>
+    <t>车辆46</t>
+  </si>
+  <si>
+    <t>车辆47</t>
+  </si>
+  <si>
+    <t>车辆48</t>
+  </si>
+  <si>
+    <t>车辆49</t>
+  </si>
+  <si>
+    <t>车辆50</t>
+  </si>
+  <si>
+    <t>车辆51</t>
+  </si>
+  <si>
+    <t>车辆52</t>
+  </si>
+  <si>
+    <t>车辆53</t>
+  </si>
+  <si>
+    <t>车辆54</t>
+  </si>
+  <si>
+    <t>车辆55</t>
+  </si>
+  <si>
+    <t>车辆56</t>
+  </si>
+  <si>
+    <t>车辆57</t>
+  </si>
+  <si>
+    <t>车辆58</t>
+  </si>
+  <si>
+    <t>车辆59</t>
+  </si>
+  <si>
+    <t>车辆60</t>
+  </si>
+  <si>
+    <t>处理车辆12的数据</t>
+  </si>
+  <si>
+    <t>处理车辆13的数据</t>
+  </si>
+  <si>
+    <t>处理车辆14的数据</t>
+  </si>
+  <si>
+    <t>处理车辆15的数据</t>
+  </si>
+  <si>
+    <t>处理车辆16的数据</t>
+  </si>
+  <si>
+    <t>处理车辆17的数据</t>
+  </si>
+  <si>
+    <t>处理车辆18的数据</t>
+  </si>
+  <si>
+    <t>处理车辆19的数据</t>
+  </si>
+  <si>
+    <t>处理车辆20的数据</t>
+  </si>
+  <si>
+    <t>处理车辆21的数据</t>
+  </si>
+  <si>
+    <t>处理车辆22的数据</t>
+  </si>
+  <si>
+    <t>处理车辆23的数据</t>
+  </si>
+  <si>
+    <t>处理车辆24的数据</t>
+  </si>
+  <si>
+    <t>处理车辆25的数据</t>
+  </si>
+  <si>
+    <t>处理车辆26的数据</t>
+  </si>
+  <si>
+    <t>处理车辆27的数据</t>
+  </si>
+  <si>
+    <t>处理车辆28的数据</t>
+  </si>
+  <si>
+    <t>处理车辆29的数据</t>
+  </si>
+  <si>
+    <t>处理车辆30的数据</t>
+  </si>
+  <si>
+    <t>处理车辆31的数据</t>
+  </si>
+  <si>
+    <t>处理车辆32的数据</t>
+  </si>
+  <si>
+    <t>处理车辆33的数据</t>
+  </si>
+  <si>
+    <t>处理车辆34的数据</t>
+  </si>
+  <si>
+    <t>处理车辆35的数据</t>
+  </si>
+  <si>
+    <t>处理车辆36的数据</t>
+  </si>
+  <si>
+    <t>处理车辆37的数据</t>
+  </si>
+  <si>
+    <t>处理车辆38的数据</t>
+  </si>
+  <si>
+    <t>处理车辆39的数据</t>
+  </si>
+  <si>
+    <t>处理车辆40的数据</t>
+  </si>
+  <si>
+    <t>处理车辆41的数据</t>
+  </si>
+  <si>
+    <t>处理车辆42的数据</t>
+  </si>
+  <si>
+    <t>处理车辆43的数据</t>
+  </si>
+  <si>
+    <t>处理车辆44的数据</t>
+  </si>
+  <si>
+    <t>处理车辆45的数据</t>
+  </si>
+  <si>
+    <t>处理车辆46的数据</t>
+  </si>
+  <si>
+    <t>处理车辆47的数据</t>
+  </si>
+  <si>
+    <t>处理车辆48的数据</t>
+  </si>
+  <si>
+    <t>处理车辆49的数据</t>
+  </si>
+  <si>
+    <t>处理车辆50的数据</t>
+  </si>
+  <si>
+    <t>处理车辆51的数据</t>
+  </si>
+  <si>
+    <t>处理车辆52的数据</t>
+  </si>
+  <si>
+    <t>处理车辆53的数据</t>
+  </si>
+  <si>
+    <t>处理车辆54的数据</t>
+  </si>
+  <si>
+    <t>处理车辆55的数据</t>
+  </si>
+  <si>
+    <t>处理车辆56的数据</t>
+  </si>
+  <si>
+    <t>处理车辆57的数据</t>
+  </si>
+  <si>
+    <t>处理车辆58的数据</t>
+  </si>
+  <si>
+    <t>处理车辆59的数据</t>
+  </si>
+  <si>
+    <t>处理车辆60的数据</t>
+  </si>
+  <si>
+    <t>172.18.2.44</t>
+  </si>
+  <si>
+    <t>2026-1-28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>excle\车充轨迹6607 - 轨迹点 - 2026-01-21.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>excle\车充轨迹6607 - 轨迹点 - 2026-01-22.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>excle\车充轨迹6607 - 轨迹点 - 2026-01-23.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>excle\车充轨迹6607 - 轨迹点 - 2026-01-26.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>excle\车充轨迹6607 - 轨迹点 - 2026-01-27.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +470,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -178,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -201,17 +511,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -516,16 +841,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="47.75" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
@@ -566,13 +891,13 @@
     </row>
     <row r="2" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="D2" s="3">
         <v>6608</v>
@@ -581,334 +906,1731 @@
         <v>13301110130</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.63252314814814814</v>
+        <v>132</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.99305555555555547</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>6608</v>
+        <v>131</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="3">
-        <v>13301110130</v>
+        <v>13301110131</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.63946759259259256</v>
+        <v>132</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.99305555555555547</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="D4" s="3">
         <v>6608</v>
       </c>
       <c r="E4" s="3">
-        <v>13301110130</v>
+        <v>13301110132</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.64641203703703709</v>
+        <v>132</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.99305555555555547</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3">
-        <v>6608</v>
+        <v>131</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="3">
-        <v>13301110130</v>
+        <v>13301110133</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.65335648148148096</v>
+        <v>132</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.99305555555555547</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="D6" s="3">
         <v>6608</v>
       </c>
       <c r="E6" s="3">
-        <v>13301110130</v>
+        <v>13301110134</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.66030092592592604</v>
+        <v>132</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.99305555555555547</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6608</v>
+        <v>131</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="3">
-        <v>13301110130</v>
+        <v>13301110135</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.66724537037037002</v>
+        <v>132</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.99305555555555547</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13301110136</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13301110137</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E10" s="3">
+        <v>13301110138</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3">
+        <v>13301110139</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13301110140</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6608</v>
-      </c>
-      <c r="E8" s="3">
-        <v>13301110130</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="I12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="4">
-        <v>0.67418981481481499</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3">
+        <v>13301110141</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E14" s="3">
+        <v>13301110142</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3">
+        <v>13301110143</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E16" s="3">
+        <v>13301110144</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13301110145</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E18" s="3">
+        <v>13301110146</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="3">
+        <v>13301110147</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E20" s="3">
+        <v>13301110148</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="3">
+        <v>13301110149</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E22" s="3">
+        <v>13301110150</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3">
+        <v>13301110151</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E24" s="3">
+        <v>13301110152</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="3">
+        <v>13301110153</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E26" s="3">
+        <v>13301110154</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="3">
+        <v>13301110155</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E28" s="3">
+        <v>13301110156</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="3">
+        <v>13301110157</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E30" s="3">
+        <v>13301110158</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="3">
+        <v>13301110159</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E32" s="3">
+        <v>13301110160</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="3">
+        <v>13301110161</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E34" s="3">
+        <v>13301110162</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="3">
+        <v>13301110163</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E36" s="3">
+        <v>13301110164</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="3">
+        <v>13301110165</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E38" s="3">
+        <v>13301110166</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="3">
+        <v>13301110167</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E40" s="3">
+        <v>13301110168</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="3">
+        <v>13301110169</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E42" s="3">
+        <v>13301110170</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="3">
+        <v>13301110171</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E44" s="3">
+        <v>13301110172</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="3">
+        <v>13301110173</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E46" s="3">
+        <v>13301110174</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="3">
+        <v>13301110175</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13301110176</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="3">
+        <v>13301110177</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E50" s="3">
+        <v>13301110178</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="3">
+        <v>13301110179</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E52" s="3">
+        <v>13301110180</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="3">
+        <v>13301110181</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13301110182</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="3">
+        <v>13301110183</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E56" s="3">
+        <v>13301110184</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="3">
+        <v>13301110185</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E58" s="3">
+        <v>13301110186</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13301110187</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="3">
+        <v>6608</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13301110188</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="13.6" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="3">
+        <v>13301110189</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C62" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Gps808/config.xlsx
+++ b/Gps808/config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="140">
   <si>
     <t>name</t>
   </si>
@@ -419,10 +419,6 @@
     <t>172.18.2.44</t>
   </si>
   <si>
-    <t>2026-1-28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>excle\车充轨迹6607 - 轨迹点 - 2026-01-21.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -440,6 +436,18 @@
   </si>
   <si>
     <t>excle\车充轨迹6607 - 轨迹点 - 2026-01-27.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026-2-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026-2-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026-2-5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -447,6 +455,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,7 +548,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G61"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -855,7 +866,7 @@
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
     <col min="8" max="8" width="17.25" customWidth="1"/>
     <col min="9" max="9" width="9.625" customWidth="1"/>
   </cols>
@@ -894,7 +905,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>131</v>
@@ -906,10 +917,10 @@
         <v>13301110130</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G2" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -923,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>131</v>
@@ -935,10 +946,10 @@
         <v>13301110131</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G3" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
@@ -952,7 +963,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>131</v>
@@ -964,10 +975,10 @@
         <v>13301110132</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G4" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>14</v>
@@ -981,7 +992,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>131</v>
@@ -993,10 +1004,10 @@
         <v>13301110133</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G5" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>19</v>
@@ -1010,7 +1021,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>131</v>
@@ -1022,10 +1033,10 @@
         <v>13301110134</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G6" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>20</v>
@@ -1039,7 +1050,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>131</v>
@@ -1051,10 +1062,10 @@
         <v>13301110135</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G7" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -1068,7 +1079,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>131</v>
@@ -1080,10 +1091,10 @@
         <v>13301110136</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G8" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>21</v>
@@ -1097,7 +1108,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>131</v>
@@ -1109,10 +1120,10 @@
         <v>13301110137</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G9" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>28</v>
@@ -1126,7 +1137,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>131</v>
@@ -1138,10 +1149,10 @@
         <v>13301110138</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G10" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>29</v>
@@ -1155,7 +1166,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>131</v>
@@ -1167,10 +1178,10 @@
         <v>13301110139</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G11" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>30</v>
@@ -1184,7 +1195,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>131</v>
@@ -1196,10 +1207,10 @@
         <v>13301110140</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G12" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>31</v>
@@ -1213,7 +1224,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>131</v>
@@ -1225,10 +1236,10 @@
         <v>13301110141</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G13" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>82</v>
@@ -1242,7 +1253,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>131</v>
@@ -1254,10 +1265,10 @@
         <v>13301110142</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G14" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>83</v>
@@ -1271,7 +1282,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>131</v>
@@ -1283,10 +1294,10 @@
         <v>13301110143</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G15" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>84</v>
@@ -1300,7 +1311,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>131</v>
@@ -1312,10 +1323,10 @@
         <v>13301110144</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G16" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>85</v>
@@ -1329,7 +1340,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>131</v>
@@ -1341,10 +1352,10 @@
         <v>13301110145</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G17" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>86</v>
@@ -1358,7 +1369,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>131</v>
@@ -1370,10 +1381,10 @@
         <v>13301110146</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G18" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>87</v>
@@ -1387,7 +1398,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>131</v>
@@ -1399,10 +1410,10 @@
         <v>13301110147</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G19" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>88</v>
@@ -1416,7 +1427,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>131</v>
@@ -1428,10 +1439,10 @@
         <v>13301110148</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G20" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>89</v>
@@ -1445,7 +1456,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>131</v>
@@ -1457,10 +1468,10 @@
         <v>13301110149</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G21" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>90</v>
@@ -1474,7 +1485,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>131</v>
@@ -1486,10 +1497,10 @@
         <v>13301110150</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G22" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>91</v>
@@ -1503,7 +1514,7 @@
         <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>131</v>
@@ -1515,10 +1526,10 @@
         <v>13301110151</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G23" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>92</v>
@@ -1532,7 +1543,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>131</v>
@@ -1544,10 +1555,10 @@
         <v>13301110152</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G24" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>93</v>
@@ -1561,7 +1572,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>131</v>
@@ -1573,10 +1584,10 @@
         <v>13301110153</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G25" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>94</v>
@@ -1590,7 +1601,7 @@
         <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>131</v>
@@ -1602,10 +1613,10 @@
         <v>13301110154</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G26" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>95</v>
@@ -1619,7 +1630,7 @@
         <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>131</v>
@@ -1631,10 +1642,10 @@
         <v>13301110155</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G27" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>96</v>
@@ -1648,7 +1659,7 @@
         <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>131</v>
@@ -1660,10 +1671,10 @@
         <v>13301110156</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G28" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>97</v>
@@ -1677,7 +1688,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>131</v>
@@ -1689,10 +1700,10 @@
         <v>13301110157</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G29" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>98</v>
@@ -1706,7 +1717,7 @@
         <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>131</v>
@@ -1718,10 +1729,10 @@
         <v>13301110158</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G30" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>99</v>
@@ -1735,7 +1746,7 @@
         <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>131</v>
@@ -1747,10 +1758,10 @@
         <v>13301110159</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G31" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>100</v>
@@ -1764,7 +1775,7 @@
         <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>131</v>
@@ -1776,10 +1787,10 @@
         <v>13301110160</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G32" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>101</v>
@@ -1793,7 +1804,7 @@
         <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>131</v>
@@ -1805,10 +1816,10 @@
         <v>13301110161</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G33" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>102</v>
@@ -1822,7 +1833,7 @@
         <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>131</v>
@@ -1834,10 +1845,10 @@
         <v>13301110162</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G34" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>103</v>
@@ -1851,7 +1862,7 @@
         <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>131</v>
@@ -1863,10 +1874,10 @@
         <v>13301110163</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G35" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>104</v>
@@ -1880,7 +1891,7 @@
         <v>56</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>131</v>
@@ -1892,10 +1903,10 @@
         <v>13301110164</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G36" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>105</v>
@@ -1909,7 +1920,7 @@
         <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>131</v>
@@ -1921,10 +1932,10 @@
         <v>13301110165</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G37" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>106</v>
@@ -1938,7 +1949,7 @@
         <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>131</v>
@@ -1950,10 +1961,10 @@
         <v>13301110166</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G38" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>107</v>
@@ -1967,7 +1978,7 @@
         <v>59</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>131</v>
@@ -1979,10 +1990,10 @@
         <v>13301110167</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G39" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>108</v>
@@ -1996,7 +2007,7 @@
         <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>131</v>
@@ -2008,10 +2019,10 @@
         <v>13301110168</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G40" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>109</v>
@@ -2025,7 +2036,7 @@
         <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>131</v>
@@ -2037,10 +2048,10 @@
         <v>13301110169</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G41" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>110</v>
@@ -2054,7 +2065,7 @@
         <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>131</v>
@@ -2066,10 +2077,10 @@
         <v>13301110170</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G42" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>111</v>
@@ -2083,7 +2094,7 @@
         <v>63</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>131</v>
@@ -2095,10 +2106,10 @@
         <v>13301110171</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G43" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>112</v>
@@ -2112,7 +2123,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>131</v>
@@ -2124,10 +2135,10 @@
         <v>13301110172</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G44" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>113</v>
@@ -2141,7 +2152,7 @@
         <v>65</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>131</v>
@@ -2153,10 +2164,10 @@
         <v>13301110173</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G45" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>114</v>
@@ -2170,7 +2181,7 @@
         <v>66</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>131</v>
@@ -2182,10 +2193,10 @@
         <v>13301110174</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G46" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>115</v>
@@ -2199,7 +2210,7 @@
         <v>67</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>131</v>
@@ -2211,10 +2222,10 @@
         <v>13301110175</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G47" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>116</v>
@@ -2228,7 +2239,7 @@
         <v>68</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>131</v>
@@ -2240,10 +2251,10 @@
         <v>13301110176</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G48" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>117</v>
@@ -2257,7 +2268,7 @@
         <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>131</v>
@@ -2269,10 +2280,10 @@
         <v>13301110177</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G49" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>118</v>
@@ -2286,7 +2297,7 @@
         <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>131</v>
@@ -2298,10 +2309,10 @@
         <v>13301110178</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G50" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>119</v>
@@ -2315,7 +2326,7 @@
         <v>71</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>131</v>
@@ -2327,10 +2338,10 @@
         <v>13301110179</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G51" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>120</v>
@@ -2344,7 +2355,7 @@
         <v>72</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>131</v>
@@ -2356,10 +2367,10 @@
         <v>13301110180</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G52" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>121</v>
@@ -2373,7 +2384,7 @@
         <v>73</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>131</v>
@@ -2385,10 +2396,10 @@
         <v>13301110181</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G53" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>122</v>
@@ -2402,7 +2413,7 @@
         <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>131</v>
@@ -2414,10 +2425,10 @@
         <v>13301110182</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G54" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>123</v>
@@ -2431,7 +2442,7 @@
         <v>75</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>131</v>
@@ -2443,10 +2454,10 @@
         <v>13301110183</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G55" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>124</v>
@@ -2460,7 +2471,7 @@
         <v>76</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>131</v>
@@ -2472,10 +2483,10 @@
         <v>13301110184</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G56" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>125</v>
@@ -2489,7 +2500,7 @@
         <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>131</v>
@@ -2501,10 +2512,10 @@
         <v>13301110185</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G57" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>126</v>
@@ -2518,7 +2529,7 @@
         <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>131</v>
@@ -2530,10 +2541,10 @@
         <v>13301110186</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G58" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>127</v>
@@ -2547,7 +2558,7 @@
         <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>131</v>
@@ -2559,10 +2570,10 @@
         <v>13301110187</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G59" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>128</v>
@@ -2576,7 +2587,7 @@
         <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>131</v>
@@ -2588,10 +2599,10 @@
         <v>13301110188</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G60" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>129</v>
@@ -2605,7 +2616,7 @@
         <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>131</v>
@@ -2617,10 +2628,10 @@
         <v>13301110189</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G61" s="6">
-        <v>0.99305555555555547</v>
+        <v>1.1574074074074073E-4</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>130</v>

--- a/Gps808/config.xlsx
+++ b/Gps808/config.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>粤AFB157</t>
-  </si>
-  <si>
-    <t>14.23.86.188</t>
   </si>
   <si>
     <t>2026-2-7</t>
@@ -91,6 +88,47 @@
   </si>
   <si>
     <t>excle\车充6506 - 轨迹点 - 2026-01-15.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务2</t>
+  </si>
+  <si>
+    <t>任务3</t>
+  </si>
+  <si>
+    <t>任务4</t>
+  </si>
+  <si>
+    <t>任务5</t>
+  </si>
+  <si>
+    <t>任务6</t>
+  </si>
+  <si>
+    <t>任务7</t>
+  </si>
+  <si>
+    <t>任务8</t>
+  </si>
+  <si>
+    <t>任务9</t>
+  </si>
+  <si>
+    <t>任务10</t>
+  </si>
+  <si>
+    <t>任务11</t>
+  </si>
+  <si>
+    <t>任务12</t>
+  </si>
+  <si>
+    <t>172.18.2.44</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -188,12 +226,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -506,13 +543,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="52" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
@@ -554,320 +591,356 @@
     </row>
     <row r="2" spans="1:9" ht="13.6">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D2">
         <v>6608</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>13305130667</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
         <v>1.05324074074074E-2</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>12</v>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D3">
         <v>25209</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>13305130667</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4">
         <v>1.05324074074074E-2</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>12</v>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.6">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D4">
         <v>6608</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>14798590340</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
         <v>7.0601851851851798E-3</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>12</v>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.6">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D5">
         <v>25209</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>14798590340</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
         <v>7.0601851851851798E-3</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>12</v>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D6">
         <v>6608</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>13305130667</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4">
         <v>9.8379629629629598E-3</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>12</v>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.6">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D7">
         <v>25209</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>13305130667</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4">
         <v>9.8379629629629598E-3</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>12</v>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.6">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D8">
         <v>6608</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>14798590340</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4">
         <v>1.2847222222222201E-2</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>12</v>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D9">
         <v>25209</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>14798590340</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4">
         <v>1.2847222222222201E-2</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>12</v>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.6">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D10">
         <v>6608</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>13305130667</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4">
         <v>1.5509259259259301E-2</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>12</v>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.6">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D11">
         <v>25209</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>13305130667</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4">
         <v>1.5509259259259301E-2</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>12</v>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.6">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D12">
         <v>6608</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>14798590340</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4">
         <v>1.1574074074074099E-2</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>12</v>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.6">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D13">
         <v>25209</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>14798590340</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4">
         <v>1.1574074074074099E-2</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>12</v>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
